--- a/steamcase/activity/activityaddcase.xlsx
+++ b/steamcase/activity/activityaddcase.xlsx
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tearInterfaceDelOneArticle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/steam-resource/admin/product/add-activity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,8 +70,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tearDBdel_t_content_picture_byTitle
+tearDBdel_t_sku_byTitle
+tearDBdel_t_vendor_rel_byTitle
+tearDBdel_t_tag_rel_byTitle
+tearDBdel_t_resource_byTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"resourceId": ""
-"title": "QUEEN'S PALACE高级定制馆3-自动化"
+"title": "QUEENS PALACE高级定制馆1-自动化"
 "subTitle": "QUEEN'S PALACE高级定制馆-活动副标题"
 "deliverType": 0
 "vendorIdList": [3]
@@ -491,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,7 +504,7 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="70.125" customWidth="1"/>
     <col min="7" max="7" width="29.625" customWidth="1"/>
@@ -538,16 +542,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>

--- a/steamcase/activity/activityaddcase.xlsx
+++ b/steamcase/activity/activityaddcase.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -123,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -291,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -485,21 +480,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -511,7 +506,7 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,7 +532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="56.25" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>

--- a/steamcase/activity/activityaddcase.xlsx
+++ b/steamcase/activity/activityaddcase.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0616D363-D518-4912-82C5-9D31CE4DF754}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -50,10 +56,6 @@
   </si>
   <si>
     <t>"code":"000000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/steam-resource/admin/product/add-activity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,12 +116,16 @@
 "state": 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/operation-manage/product/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,21 +486,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -506,7 +512,7 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,24 +538,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="56.25" customHeight="1">
+    <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>

--- a/steamcase/activity/activityaddcase.xlsx
+++ b/steamcase/activity/activityaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0616D363-D518-4912-82C5-9D31CE4DF754}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6694D912-AD1E-438D-85EC-27421D266F2B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>caseid</t>
   </si>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>actualResult</t>
-  </si>
-  <si>
-    <t>media_add_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"code":"000000"</t>
@@ -118,6 +114,60 @@
   </si>
   <si>
     <t>/operation-manage/product/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"resourceId": ""
+"title": "QUEENS PALACE高级定制馆1-自动化"
+"subTitle": "QUEEN'S PALACE高级定制馆-活动副标题"
+"deliverType": 0
+"vendorIdList": [3]
+"resourceTypeId": 11
+"content": "&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;fQueen’s Palace于2011年9月创立，是一家国内高级定制婚纱礼服奢侈品牌。自品牌创立以来，Queen’s Palace在沪上高定婚纱品牌的殿堂一直雄踞顶端，专注于婚纱定制的每一处细节。&lt;/p&gt;&lt;/body&gt;&lt;/html&gt;"
+"shareType": 1
+"shareTitle": "QUEENSPALACE高级定制馆-分享标题"
+"shareDescription": "QUEEN'S PALACE高级定制馆-分享描述"
+"sharePicturePath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101830_796382.jpg"
+"province": "重庆市"
+"city": "重庆郊县"
+"addressDetail": "肇嘉浜路356号(襄阳南路路口)"
+"thumbUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101738_928360.jpg"
+"bannerUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101741_710087.jpg"
+"imgListpicturePath1": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101747_909470.jpg"
+"imgListpicturePath2": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101749_880315.jpg"
+"cornerMask": "商品"
+"offShelfTime": 2764800000
+"entryIdList": [7]
+"tagIdList": [2]
+"skuName1": "套餐1"
+"skuId1": None
+"order1": 1
+"price1": "0.01"
+"originPrice1": "1000"
+"inventory1": "1000"
+"limitCount1": "2"
+"postPrice1": "0.01"
+"skuName2": "套餐2"
+"skuId2": None
+"order2": 2
+"price2": "0.02"
+"originPrice2": "1200"
+"inventory2": "2000"
+"limitCount2": "3"
+"postPrice2": "0.01"
+"state": 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_add_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_add_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一个商品正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -292,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -494,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,27 +588,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/steamcase/activity/activityaddcase.xlsx
+++ b/steamcase/activity/activityaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6694D912-AD1E-438D-85EC-27421D266F2B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61860F05-0EDC-4DD5-AA0D-910E59827732}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,7 +588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
